--- a/Budget2018.xlsx
+++ b/Budget2018.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcallah/GitProjects/Sawkill/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2060" windowWidth="36700" windowHeight="21360" tabRatio="500"/>
+    <workbookView xWindow="2240" yWindow="2060" windowWidth="36700" windowHeight="21360" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="127 Gristmill" sheetId="1" r:id="rId1"/>
@@ -130,14 +130,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,8 +160,14 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color rgb="FF44546A"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,30 +187,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF4472C4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -298,42 +278,39 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="6" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -608,482 +585,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <f>+C5+D5</f>
         <v>700</v>
       </c>
-      <c r="C5" s="5">
-        <v>700</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <f>+H5+I5+J5+K5</f>
-        <v>250</v>
-      </c>
-      <c r="H5" s="5">
-        <v>250</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="3">
+        <v>700</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <f>+F5+G5+H5+I5</f>
+        <v>250</v>
+      </c>
+      <c r="F5" s="3">
+        <v>250</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <f t="shared" ref="B6:B16" si="0">+C6+D6</f>
         <v>700</v>
       </c>
-      <c r="C6" s="8">
-        <v>700</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" ref="G6:G16" si="1">+H6+I6+J6+K6</f>
-        <v>250</v>
-      </c>
-      <c r="H6" s="8">
-        <v>250</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="6">
+        <v>700</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:E16" si="1">+F6+G6+H6+I6</f>
+        <v>250</v>
+      </c>
+      <c r="F6" s="6">
+        <v>250</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="C7" s="8">
-        <v>700</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="H7" s="8">
-        <v>250</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C7" s="6">
+        <v>700</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="F7" s="6">
+        <v>250</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="C8" s="8">
-        <v>700</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="H8" s="8">
-        <v>250</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C8" s="6">
+        <v>700</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="F8" s="6">
+        <v>250</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="C9" s="8">
-        <v>700</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C9" s="6">
+        <v>700</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
-      <c r="H9" s="8">
-        <v>250</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="F9" s="6">
+        <v>250</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>600</v>
       </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="C10" s="8">
-        <v>700</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C10" s="6">
+        <v>700</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>950</v>
       </c>
-      <c r="H10" s="8">
-        <v>250</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F10" s="6">
+        <v>250</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="C11" s="8">
-        <v>700</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="H11" s="8">
-        <v>250</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C11" s="6">
+        <v>700</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="F11" s="6">
+        <v>250</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="C12" s="8">
-        <v>700</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="H12" s="8">
-        <v>250</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C12" s="6">
+        <v>700</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="F12" s="6">
+        <v>250</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="C13" s="8">
-        <v>700</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="H13" s="8">
-        <v>250</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C13" s="6">
+        <v>700</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="F13" s="6">
+        <v>250</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="C14" s="8">
-        <v>700</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="H14" s="8">
-        <v>250</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C14" s="6">
+        <v>700</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="F14" s="6">
+        <v>250</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="C15" s="8">
-        <v>700</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C15" s="6">
+        <v>700</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="H15" s="8">
-        <v>250</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="F15" s="6">
+        <v>250</v>
+      </c>
+      <c r="G15" s="6">
         <v>1600</v>
       </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="10">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="C16" s="11">
-        <v>700</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="H16" s="11">
-        <v>250</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="8">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C16" s="9">
+        <v>700</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="F16" s="9">
+        <v>250</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <f>SUM(B5:B16)</f>
         <v>8400</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <f>SUM(C5:C16)</f>
         <v>8400</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <f>SUM(D5:D16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="E17" s="1">
+        <f>SUM(E5:E16)</f>
+        <v>5900</v>
+      </c>
+      <c r="F17" s="1">
+        <f>SUM(F5:F16)</f>
+        <v>3000</v>
+      </c>
+      <c r="G17" s="1">
         <f>SUM(G5:G16)</f>
-        <v>5900</v>
-      </c>
-      <c r="H17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H17" s="1">
         <f>SUM(H5:H16)</f>
-        <v>3000</v>
-      </c>
-      <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="1">
         <f>SUM(I5:I16)</f>
-        <v>1600</v>
-      </c>
-      <c r="J17" s="3">
-        <f>SUM(J5:J16)</f>
-        <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <f>SUM(K5:K16)</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E20" s="13" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="13">
-        <f>+B17-G17</f>
+      <c r="F20" s="11">
+        <f>+B17-E17</f>
         <v>2500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1092,7 +1074,7 @@
   <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1104,693 +1086,697 @@
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <f>+C6+D6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <f>+H6+I6+J6+K6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <f>+C6*0.2</f>
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <f>+C6*0.05</f>
         <v>0</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <f>+C6*0.4</f>
         <v>0</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <f t="shared" ref="B7:B17" si="0">+C7+D7</f>
         <v>0</v>
       </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" ref="G7:G17" si="1">+H7+I7+J7+K7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <f t="shared" ref="H7:H17" si="2">+C7*0.2</f>
         <v>0</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <f t="shared" ref="I7:I17" si="3">+C7*0.05</f>
         <v>0</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <f t="shared" ref="J7:J17" si="4">+C7*0.4</f>
         <v>0</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>500</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>2500</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>1625</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>2500</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>1625</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>2500</v>
       </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="1"/>
         <v>1625</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>2500</v>
       </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>1625</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="7">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>2500</v>
       </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>1625</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>500</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="B17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <f>SUM(B6:B17)</f>
         <v>13500</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <f>SUM(C6:C17)</f>
         <v>13500</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <f>SUM(D6:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <f>SUM(G6:G17)</f>
         <v>8775</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <f>SUM(H6:H17)</f>
         <v>2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <f>SUM(I6:I17)</f>
         <v>675</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="1">
         <f>SUM(J6:J17)</f>
         <v>5400</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="11">
         <f>+B18-G18</f>
         <v>4725</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <f>+'453 Route 6'!B6+'127 Gristmill'!B5</f>
         <v>700</v>
       </c>
-      <c r="C5" s="6">
-        <f>+'453 Route 6'!G6+'127 Gristmill'!G5</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="4">
+        <f>+'453 Route 6'!G6+'127 Gristmill'!E5</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <f>+'453 Route 6'!B7+'127 Gristmill'!B6</f>
         <v>700</v>
       </c>
-      <c r="C6" s="9">
-        <f>+'453 Route 6'!G7+'127 Gristmill'!G6</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="7">
+        <f>+'453 Route 6'!G7+'127 Gristmill'!E6</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <f>+'453 Route 6'!B8+'127 Gristmill'!B7</f>
         <v>700</v>
       </c>
-      <c r="C7" s="9">
-        <f>+'453 Route 6'!G8+'127 Gristmill'!G7</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="7">
+        <f>+'453 Route 6'!G8+'127 Gristmill'!E7</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <f>+'453 Route 6'!B9+'127 Gristmill'!B8</f>
         <v>1200</v>
       </c>
-      <c r="C8" s="9">
-        <f>+'453 Route 6'!G9+'127 Gristmill'!G8</f>
+      <c r="C8" s="7">
+        <f>+'453 Route 6'!G9+'127 Gristmill'!E8</f>
         <v>575</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <f>+'453 Route 6'!B10+'127 Gristmill'!B9</f>
         <v>3200</v>
       </c>
-      <c r="C9" s="9">
-        <f>+'453 Route 6'!G10+'127 Gristmill'!G9</f>
+      <c r="C9" s="7">
+        <f>+'453 Route 6'!G10+'127 Gristmill'!E9</f>
         <v>2475</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <f>+'453 Route 6'!B11+'127 Gristmill'!B10</f>
         <v>3200</v>
       </c>
-      <c r="C10" s="9">
-        <f>+'453 Route 6'!G11+'127 Gristmill'!G10</f>
+      <c r="C10" s="7">
+        <f>+'453 Route 6'!G11+'127 Gristmill'!E10</f>
         <v>2575</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <f>+'453 Route 6'!B12+'127 Gristmill'!B11</f>
         <v>3200</v>
       </c>
-      <c r="C11" s="9">
-        <f>+'453 Route 6'!G12+'127 Gristmill'!G11</f>
+      <c r="C11" s="7">
+        <f>+'453 Route 6'!G12+'127 Gristmill'!E11</f>
         <v>1875</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <f>+'453 Route 6'!B13+'127 Gristmill'!B12</f>
         <v>3200</v>
       </c>
-      <c r="C12" s="9">
-        <f>+'453 Route 6'!G13+'127 Gristmill'!G12</f>
+      <c r="C12" s="7">
+        <f>+'453 Route 6'!G13+'127 Gristmill'!E12</f>
         <v>1875</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <f>+'453 Route 6'!B14+'127 Gristmill'!B13</f>
         <v>3200</v>
       </c>
-      <c r="C13" s="9">
-        <f>+'453 Route 6'!G14+'127 Gristmill'!G13</f>
+      <c r="C13" s="7">
+        <f>+'453 Route 6'!G14+'127 Gristmill'!E13</f>
         <v>1875</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <f>+'453 Route 6'!B15+'127 Gristmill'!B14</f>
         <v>1200</v>
       </c>
-      <c r="C14" s="9">
-        <f>+'453 Route 6'!G15+'127 Gristmill'!G14</f>
+      <c r="C14" s="7">
+        <f>+'453 Route 6'!G15+'127 Gristmill'!E14</f>
         <v>575</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <f>+'453 Route 6'!B16+'127 Gristmill'!B15</f>
         <v>700</v>
       </c>
-      <c r="C15" s="9">
-        <f>+'453 Route 6'!G16+'127 Gristmill'!G15</f>
+      <c r="C15" s="7">
+        <f>+'453 Route 6'!G16+'127 Gristmill'!E15</f>
         <v>1850</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <f>+'453 Route 6'!B17+'127 Gristmill'!B16</f>
         <v>700</v>
       </c>
-      <c r="C16" s="12">
-        <f>+'453 Route 6'!G17+'127 Gristmill'!G16</f>
+      <c r="C16" s="10">
+        <f>+'453 Route 6'!G17+'127 Gristmill'!E16</f>
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <f>SUM(B5:B16)</f>
         <v>21900</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <f>SUM(C5:C16)</f>
         <v>14675</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <f>+B17-C17</f>
         <v>7225</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>